--- a/Data/Data_Assistant.xlsx
+++ b/Data/Data_Assistant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Proton\ERT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D97C57-EC85-4330-9634-EA89D5450650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBBBEBA-A934-4ECF-9F8E-411639FB7C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="2970" windowWidth="16905" windowHeight="12000" xr2:uid="{47162153-D28C-4C06-B23B-39F2F87358B2}"/>
+    <workbookView xWindow="9885" yWindow="3330" windowWidth="16905" windowHeight="12000" xr2:uid="{47162153-D28C-4C06-B23B-39F2F87358B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Assistant</t>
   </si>
@@ -82,6 +82,42 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>Zahra</t>
+  </si>
+  <si>
+    <t>Agus</t>
+  </si>
+  <si>
+    <t>Nori</t>
+  </si>
+  <si>
+    <t>Prasetya</t>
+  </si>
+  <si>
+    <t>Abil</t>
+  </si>
+  <si>
+    <t>Dinul</t>
+  </si>
+  <si>
+    <t>Arinal</t>
+  </si>
+  <si>
+    <t>Said</t>
+  </si>
+  <si>
+    <t>Beling</t>
+  </si>
+  <si>
+    <t>Fajar</t>
+  </si>
+  <si>
+    <t>Ardi</t>
+  </si>
+  <si>
+    <t>Ade</t>
   </si>
 </sst>
 </file>
@@ -433,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C23A84A-5B40-4488-B363-7C567B359C60}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +569,86 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data_Assistant.xlsx
+++ b/Data/Data_Assistant.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Proton\ERT\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA PRAKTIKUM\01_PRAKTIKUM SISTEM DIGITAL\01_PTA (RD)\PTA 2021_2022\BAP\ERT-v.1.0\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBBBEBA-A934-4ECF-9F8E-411639FB7C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="3330" windowWidth="16905" windowHeight="12000" xr2:uid="{47162153-D28C-4C06-B23B-39F2F87358B2}"/>
+    <workbookView xWindow="9885" yWindow="3330" windowWidth="16905" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Assistant</t>
   </si>
@@ -45,9 +44,6 @@
     <t>Adinda</t>
   </si>
   <si>
-    <t>Fauzia</t>
-  </si>
-  <si>
     <t>Sidiq</t>
   </si>
   <si>
@@ -57,12 +53,6 @@
     <t>Zulfikar</t>
   </si>
   <si>
-    <t>Dicky</t>
-  </si>
-  <si>
-    <t>Taruna</t>
-  </si>
-  <si>
     <t>Marwah</t>
   </si>
   <si>
@@ -93,37 +83,103 @@
     <t>Nori</t>
   </si>
   <si>
-    <t>Prasetya</t>
-  </si>
-  <si>
-    <t>Abil</t>
-  </si>
-  <si>
-    <t>Dinul</t>
-  </si>
-  <si>
     <t>Arinal</t>
   </si>
   <si>
-    <t>Said</t>
-  </si>
-  <si>
-    <t>Beling</t>
-  </si>
-  <si>
-    <t>Fajar</t>
-  </si>
-  <si>
-    <t>Ardi</t>
-  </si>
-  <si>
     <t>Ade</t>
+  </si>
+  <si>
+    <t>Akbar</t>
+  </si>
+  <si>
+    <t>Diky</t>
+  </si>
+  <si>
+    <t>Yasa</t>
+  </si>
+  <si>
+    <t>Fauziah</t>
+  </si>
+  <si>
+    <t>Lukman</t>
+  </si>
+  <si>
+    <t>Benny</t>
+  </si>
+  <si>
+    <t>Oka</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Eggie</t>
+  </si>
+  <si>
+    <t>Ardy</t>
+  </si>
+  <si>
+    <t>Baso</t>
+  </si>
+  <si>
+    <t>Bima</t>
+  </si>
+  <si>
+    <t>Raafsha</t>
+  </si>
+  <si>
+    <t>Muamar</t>
+  </si>
+  <si>
+    <t>Libratyan</t>
+  </si>
+  <si>
+    <t>Doni</t>
+  </si>
+  <si>
+    <t>Bagus</t>
+  </si>
+  <si>
+    <t>Richie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinul </t>
+  </si>
+  <si>
+    <t>Beret</t>
+  </si>
+  <si>
+    <t>Shawo</t>
+  </si>
+  <si>
+    <t>Ciyu</t>
+  </si>
+  <si>
+    <t>Eming</t>
+  </si>
+  <si>
+    <t>Jholim</t>
+  </si>
+  <si>
+    <t>Cibeng</t>
+  </si>
+  <si>
+    <t>Kurban</t>
+  </si>
+  <si>
+    <t>Rojak</t>
+  </si>
+  <si>
+    <t>Mading</t>
+  </si>
+  <si>
+    <t>Bopak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C23A84A-5B40-4488-B363-7C567B359C60}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,148 +550,148 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -643,10 +699,90 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Assistant.xlsx
+++ b/Data/Data_Assistant.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA PRAKTIKUM\01_PRAKTIKUM SISTEM DIGITAL\01_PTA (RD)\PTA 2021_2022\BAP\ERT-v.1.0\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Proton\ERT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBC7E6B-4A21-451E-8D69-9A5E546992F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="3330" windowWidth="16905" windowHeight="12000"/>
+    <workbookView xWindow="7005" yWindow="4035" windowWidth="16905" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Assistant</t>
   </si>
@@ -71,9 +63,6 @@
     <t>Cabut</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>Zahra</t>
   </si>
   <si>
@@ -98,9 +87,6 @@
     <t>Yasa</t>
   </si>
   <si>
-    <t>Fauziah</t>
-  </si>
-  <si>
     <t>Lukman</t>
   </si>
   <si>
@@ -131,9 +117,6 @@
     <t>Muamar</t>
   </si>
   <si>
-    <t>Libratyan</t>
-  </si>
-  <si>
     <t>Doni</t>
   </si>
   <si>
@@ -174,12 +157,57 @@
   </si>
   <si>
     <t>Bopak</t>
+  </si>
+  <si>
+    <t>Fikri</t>
+  </si>
+  <si>
+    <t>Libra</t>
+  </si>
+  <si>
+    <t>Fauzia</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>Caca</t>
+  </si>
+  <si>
+    <t>Faskal</t>
+  </si>
+  <si>
+    <t>Isen</t>
+  </si>
+  <si>
+    <t>Taruna</t>
+  </si>
+  <si>
+    <t>Yaya</t>
+  </si>
+  <si>
+    <t>Beni</t>
+  </si>
+  <si>
+    <t>Ardi</t>
+  </si>
+  <si>
+    <t>Gusti</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Luthfi</t>
+  </si>
+  <si>
+    <t>Mufi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,265 +552,261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D2:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
+      <c r="C16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
         <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
